--- a/Desarrollo/GP4/Sprint 1/cronograma_v1.xlsx
+++ b/Desarrollo/GP4/Sprint 1/cronograma_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826191C5-700E-4B8D-93F6-7DF0D68C3B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845730E-152B-4FF8-B97C-537AA3B26746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Planteamiento- modo de trabajo</t>
   </si>
   <si>
-    <t>Espinoza Loiza  / Scrum Master</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
   </si>
   <si>
     <t>Pareja-Masias / Testing - Desarrollador Frontend</t>
-  </si>
-  <si>
-    <t>Espinoza Loaiza/ Scrum Master</t>
   </si>
   <si>
     <t>Project Charter</t>
@@ -761,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -891,11 +885,9 @@
         <v>61</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>63</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8">
         <v>44495</v>
       </c>
@@ -910,16 +902,16 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8">
         <v>44497</v>
@@ -941,10 +933,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="12">
         <v>44501</v>
@@ -966,10 +958,10 @@
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="12">
         <v>44522</v>
@@ -991,10 +983,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="26">
         <v>44523</v>
@@ -1025,7 +1017,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>28</v>
@@ -1050,10 +1042,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8">
         <v>44529</v>
@@ -1075,10 +1067,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8">
         <v>44531</v>
@@ -1100,10 +1092,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8">
         <v>44536</v>
@@ -1125,10 +1117,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8">
         <v>44539</v>
@@ -1150,10 +1142,10 @@
         <v>38</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8">
         <v>44545</v>
@@ -1175,10 +1167,10 @@
         <v>40</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8">
         <v>44551</v>
@@ -1200,10 +1192,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="8">
         <v>44557</v>
@@ -1234,7 +1226,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>43</v>
@@ -1259,10 +1251,10 @@
         <v>45</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="28">
         <v>44559</v>
@@ -1284,10 +1276,10 @@
         <v>47</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="8">
         <v>44926</v>
@@ -1309,10 +1301,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="8">
         <v>44565</v>
@@ -1334,10 +1326,10 @@
         <v>51</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8">
         <v>44568</v>
@@ -1359,10 +1351,10 @@
         <v>53</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="8">
         <v>44571</v>
@@ -1384,10 +1376,10 @@
         <v>55</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="8">
         <v>44575</v>
@@ -1409,10 +1401,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="8">
         <v>44579</v>
@@ -1434,11 +1426,9 @@
         <v>59</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>63</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E33" s="31"/>
       <c r="F33" s="8">
         <v>44582</v>
       </c>
@@ -1468,15 +1458,13 @@
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="E35" s="21"/>
       <c r="F35" s="30">
         <v>44588</v>
       </c>

--- a/Desarrollo/GP4/Sprint 1/cronograma_v1.xlsx
+++ b/Desarrollo/GP4/Sprint 1/cronograma_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845730E-152B-4FF8-B97C-537AA3B26746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD106ACE-C403-4579-9711-36593A745A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Documento de Lista de Actividades</t>
   </si>
   <si>
-    <t>Diseño y Prototipo de Base de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de Diseño de Base de Datos </t>
-  </si>
-  <si>
     <t>Documento de Diseño de Software</t>
   </si>
   <si>
@@ -216,15 +210,15 @@
     <t>Planteamiento- modo de trabajo</t>
   </si>
   <si>
+    <t>Espinoza Loiza  / Scrum Master</t>
+  </si>
+  <si>
     <t>Sprint 2</t>
   </si>
   <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>Masias Carranza / Desarrollador Frontend</t>
   </si>
   <si>
@@ -258,6 +252,9 @@
     <t>Pareja-Masias / Testing - Desarrollador Frontend</t>
   </si>
   <si>
+    <t>Espinoza Loaiza/ Scrum Master</t>
+  </si>
+  <si>
     <t>Project Charter</t>
   </si>
   <si>
@@ -316,6 +313,18 @@
   </si>
   <si>
     <t>GP4-MU</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Espinoza Loiza  / Jefe de proyecto</t>
+  </si>
+  <si>
+    <t>Casos de uso y Diseño y Prototipo de Base de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentos: Casos de uso y Diseño de Base de Datos </t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -534,6 +542,7 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,17 +764,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="69.625" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="5" max="5" width="59.125" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="9" width="11.375" customWidth="1"/>
@@ -860,34 +869,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>44494</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>44494</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="F10" s="8">
         <v>44495</v>
       </c>
@@ -901,17 +912,17 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>77</v>
+      <c r="B11" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="8">
         <v>44497</v>
@@ -927,16 +938,16 @@
     </row>
     <row r="12" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="F12" s="12">
         <v>44501</v>
@@ -951,20 +962,20 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>23</v>
+      <c r="B13" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="F13" s="12">
-        <v>44522</v>
+        <v>44508</v>
       </c>
       <c r="G13" s="12">
         <v>44522</v>
@@ -972,23 +983,23 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="26">
+        <v>81</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="25">
         <v>44523</v>
       </c>
       <c r="G14" s="12">
@@ -1002,7 +1013,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -1016,18 +1027,18 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>63</v>
+      <c r="B16" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>44529</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>44558</v>
       </c>
       <c r="H16" s="16"/>
@@ -1036,16 +1047,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="8">
         <v>44529</v>
@@ -1061,16 +1072,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="8">
         <v>44531</v>
@@ -1086,16 +1097,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="8">
         <v>44536</v>
@@ -1111,16 +1122,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="8">
         <v>44539</v>
@@ -1136,16 +1147,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="8">
         <v>44545</v>
@@ -1161,16 +1172,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>68</v>
+        <v>87</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F22" s="8">
         <v>44551</v>
@@ -1186,21 +1197,21 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="8">
         <v>44557</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>44558</v>
       </c>
       <c r="H23" s="18"/>
@@ -1211,7 +1222,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>19</v>
@@ -1225,18 +1236,18 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
-        <v>64</v>
+      <c r="B25" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>44559</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>44582</v>
       </c>
       <c r="H25" s="16"/>
@@ -1245,18 +1256,18 @@
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="28">
+        <v>89</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="27">
         <v>44559</v>
       </c>
       <c r="G26" s="8">
@@ -1270,16 +1281,16 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="F27" s="8">
         <v>44926</v>
@@ -1295,16 +1306,16 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="F28" s="8">
         <v>44565</v>
@@ -1320,16 +1331,16 @@
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="F29" s="8">
         <v>44568</v>
@@ -1345,16 +1356,16 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="F30" s="8">
         <v>44571</v>
@@ -1370,16 +1381,16 @@
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="F31" s="8">
         <v>44575</v>
@@ -1395,16 +1406,16 @@
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="F32" s="8">
         <v>44579</v>
@@ -1420,15 +1431,17 @@
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="31"/>
+        <v>79</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="8">
         <v>44582</v>
       </c>
@@ -1443,7 +1456,7 @@
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>19</v>
@@ -1457,18 +1470,20 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>65</v>
+      <c r="B35" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="30">
+      <c r="E35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="29">
         <v>44588</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <v>44588</v>
       </c>
       <c r="H35" s="16"/>
